--- a/pre/result_show.xlsx
+++ b/pre/result_show.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="装车率测试" sheetId="2" r:id="rId1"/>
-    <sheet name="平均延误" sheetId="3" r:id="rId2"/>
-    <sheet name="停车次数" sheetId="4" r:id="rId3"/>
-    <sheet name="停车时间" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Chart1" sheetId="6" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="7" r:id="rId2"/>
+    <sheet name="Chart3" sheetId="8" r:id="rId3"/>
+    <sheet name="Chart4" sheetId="9" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +93,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -158,14 +160,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -192,40 +186,119 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
+              <c:f>[1]Sheet1!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$L$2</c:f>
+              <c:f>[1]Sheet1!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.55</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>单车引导</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC37-40F8-AFE8-2E87D293E429}"/>
+              <c16:uniqueId val="{00000000-72C4-48F7-B993-05DF8C07335C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -252,26 +325,113 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
+              <c:f>[1]Sheet1!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$L$3</c:f>
+              <c:f>[1]Sheet1!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Sheet1!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>协同引导</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC37-40F8-AFE8-2E87D293E429}"/>
+              <c16:uniqueId val="{00000001-72C4-48F7-B993-05DF8C07335C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -568,11 +728,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>无引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -603,17 +763,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>18.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +836,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-869B-4BC6-854D-AEF871E711D0}"/>
+              <c16:uniqueId val="{00000000-56BD-4C2D-9F85-936666A0D8E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -630,11 +845,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>单车引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -665,17 +880,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,7 +953,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-869B-4BC6-854D-AEF871E711D0}"/>
+              <c16:uniqueId val="{00000001-56BD-4C2D-9F85-936666A0D8E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -692,11 +962,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>协同引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -727,17 +997,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +1070,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-869B-4BC6-854D-AEF871E711D0}"/>
+              <c16:uniqueId val="{00000002-56BD-4C2D-9F85-936666A0D8E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1042,11 +1367,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>无引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1077,17 +1402,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +1475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BEDD-41E3-92CD-E7BCCE2A60D8}"/>
+              <c16:uniqueId val="{00000000-654C-4E6E-8552-3258EFE9CD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1104,11 +1484,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>单车引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,17 +1519,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,7 +1592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BEDD-41E3-92CD-E7BCCE2A60D8}"/>
+              <c16:uniqueId val="{00000001-654C-4E6E-8552-3258EFE9CD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1166,11 +1601,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>协同引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1201,17 +1636,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1709,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BEDD-41E3-92CD-E7BCCE2A60D8}"/>
+              <c16:uniqueId val="{00000002-654C-4E6E-8552-3258EFE9CD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1515,11 +2005,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>无引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1550,17 +2040,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,7 +2113,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-472E-435D-8695-86B799DC99DF}"/>
+              <c16:uniqueId val="{00000000-3434-41EC-A532-DE35CD0463F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1577,11 +2122,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>单车引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1612,17 +2157,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,7 +2230,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-472E-435D-8695-86B799DC99DF}"/>
+              <c16:uniqueId val="{00000001-3434-41EC-A532-DE35CD0463F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1639,11 +2239,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>协同引导</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1674,17 +2274,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>'[1]周期90 100%装车 流量变化'!$B$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,7 +2347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-472E-435D-8695-86B799DC99DF}"/>
+              <c16:uniqueId val="{00000002-3434-41EC-A532-DE35CD0463F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4136,7 +4791,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4158,7 +4813,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4284,6 +4939,752 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="平均延误"/>
+      <sheetName val="平均停车次数"/>
+      <sheetName val="平均停车时间"/>
+      <sheetName val="周期90 100%装车 流量变化"/>
+      <sheetName val="1 周期90 流量360 装车率变化"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="2 周期90 流量360 装车率变化"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>300</v>
+          </cell>
+          <cell r="C2">
+            <v>600</v>
+          </cell>
+          <cell r="D2">
+            <v>900</v>
+          </cell>
+          <cell r="E2">
+            <v>1200</v>
+          </cell>
+          <cell r="F2">
+            <v>1500</v>
+          </cell>
+          <cell r="G2">
+            <v>1800</v>
+          </cell>
+          <cell r="H2">
+            <v>2100</v>
+          </cell>
+          <cell r="I2">
+            <v>2400</v>
+          </cell>
+          <cell r="J2">
+            <v>2700</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>无引导</v>
+          </cell>
+          <cell r="B3">
+            <v>18.13</v>
+          </cell>
+          <cell r="C3">
+            <v>20.079999999999998</v>
+          </cell>
+          <cell r="D3">
+            <v>21.73</v>
+          </cell>
+          <cell r="E3">
+            <v>24.12</v>
+          </cell>
+          <cell r="F3">
+            <v>25.81</v>
+          </cell>
+          <cell r="G3">
+            <v>28.56</v>
+          </cell>
+          <cell r="H3">
+            <v>34.36</v>
+          </cell>
+          <cell r="I3">
+            <v>106.01</v>
+          </cell>
+          <cell r="J3">
+            <v>210.84</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>单车引导</v>
+          </cell>
+          <cell r="B4">
+            <v>14.56</v>
+          </cell>
+          <cell r="C4">
+            <v>16.39</v>
+          </cell>
+          <cell r="D4">
+            <v>18.07</v>
+          </cell>
+          <cell r="E4">
+            <v>19.850000000000001</v>
+          </cell>
+          <cell r="F4">
+            <v>21.21</v>
+          </cell>
+          <cell r="G4">
+            <v>23.6</v>
+          </cell>
+          <cell r="H4">
+            <v>28.13</v>
+          </cell>
+          <cell r="I4">
+            <v>40.17</v>
+          </cell>
+          <cell r="J4">
+            <v>109.58</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>协同引导</v>
+          </cell>
+          <cell r="B5">
+            <v>12.6</v>
+          </cell>
+          <cell r="C5">
+            <v>14.55</v>
+          </cell>
+          <cell r="D5">
+            <v>16.05</v>
+          </cell>
+          <cell r="E5">
+            <v>17.38</v>
+          </cell>
+          <cell r="F5">
+            <v>18.78</v>
+          </cell>
+          <cell r="G5">
+            <v>20.23</v>
+          </cell>
+          <cell r="H5">
+            <v>21.87</v>
+          </cell>
+          <cell r="I5">
+            <v>23.48</v>
+          </cell>
+          <cell r="J5">
+            <v>25.18</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>300</v>
+          </cell>
+          <cell r="C6">
+            <v>600</v>
+          </cell>
+          <cell r="D6">
+            <v>900</v>
+          </cell>
+          <cell r="E6">
+            <v>1200</v>
+          </cell>
+          <cell r="F6">
+            <v>1500</v>
+          </cell>
+          <cell r="G6">
+            <v>1800</v>
+          </cell>
+          <cell r="H6">
+            <v>2100</v>
+          </cell>
+          <cell r="I6">
+            <v>2400</v>
+          </cell>
+          <cell r="J6">
+            <v>2700</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>无引导</v>
+          </cell>
+          <cell r="B7">
+            <v>0.54</v>
+          </cell>
+          <cell r="C7">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="D7">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="E7">
+            <v>0.57999999999999996</v>
+          </cell>
+          <cell r="F7">
+            <v>0.56999999999999995</v>
+          </cell>
+          <cell r="G7">
+            <v>0.57999999999999996</v>
+          </cell>
+          <cell r="H7">
+            <v>0.63</v>
+          </cell>
+          <cell r="I7">
+            <v>1.49</v>
+          </cell>
+          <cell r="J7">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>单车引导</v>
+          </cell>
+          <cell r="B8">
+            <v>0.35</v>
+          </cell>
+          <cell r="C8">
+            <v>0.36</v>
+          </cell>
+          <cell r="D8">
+            <v>0.37</v>
+          </cell>
+          <cell r="E8">
+            <v>0.38</v>
+          </cell>
+          <cell r="F8">
+            <v>0.39</v>
+          </cell>
+          <cell r="G8">
+            <v>0.39</v>
+          </cell>
+          <cell r="H8">
+            <v>0.44</v>
+          </cell>
+          <cell r="I8">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="J8">
+            <v>1.39</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>协同引导</v>
+          </cell>
+          <cell r="B9">
+            <v>0.18</v>
+          </cell>
+          <cell r="C9">
+            <v>0.19</v>
+          </cell>
+          <cell r="D9">
+            <v>0.21</v>
+          </cell>
+          <cell r="E9">
+            <v>0.21</v>
+          </cell>
+          <cell r="F9">
+            <v>0.19</v>
+          </cell>
+          <cell r="G9">
+            <v>0.19</v>
+          </cell>
+          <cell r="H9">
+            <v>0.19</v>
+          </cell>
+          <cell r="I9">
+            <v>0.2</v>
+          </cell>
+          <cell r="J9">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>300</v>
+          </cell>
+          <cell r="C10">
+            <v>600</v>
+          </cell>
+          <cell r="D10">
+            <v>900</v>
+          </cell>
+          <cell r="E10">
+            <v>1200</v>
+          </cell>
+          <cell r="F10">
+            <v>1500</v>
+          </cell>
+          <cell r="G10">
+            <v>1800</v>
+          </cell>
+          <cell r="H10">
+            <v>2100</v>
+          </cell>
+          <cell r="I10">
+            <v>2400</v>
+          </cell>
+          <cell r="J10">
+            <v>2700</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>无引导</v>
+          </cell>
+          <cell r="B11">
+            <v>10.45</v>
+          </cell>
+          <cell r="C11">
+            <v>11.17</v>
+          </cell>
+          <cell r="D11">
+            <v>11.69</v>
+          </cell>
+          <cell r="E11">
+            <v>12.09</v>
+          </cell>
+          <cell r="F11">
+            <v>12.35</v>
+          </cell>
+          <cell r="G11">
+            <v>13.1</v>
+          </cell>
+          <cell r="H11">
+            <v>15.66</v>
+          </cell>
+          <cell r="I11">
+            <v>54.61</v>
+          </cell>
+          <cell r="J11">
+            <v>122.35</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>单车引导</v>
+          </cell>
+          <cell r="B12">
+            <v>8.2100000000000009</v>
+          </cell>
+          <cell r="C12">
+            <v>8.6300000000000008</v>
+          </cell>
+          <cell r="D12">
+            <v>9.1199999999999992</v>
+          </cell>
+          <cell r="E12">
+            <v>9.75</v>
+          </cell>
+          <cell r="F12">
+            <v>10.17</v>
+          </cell>
+          <cell r="G12">
+            <v>11.02</v>
+          </cell>
+          <cell r="H12">
+            <v>13.14</v>
+          </cell>
+          <cell r="I12">
+            <v>20.49</v>
+          </cell>
+          <cell r="J12">
+            <v>71.22</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>协同引导</v>
+          </cell>
+          <cell r="B13">
+            <v>5.8</v>
+          </cell>
+          <cell r="C13">
+            <v>5.88</v>
+          </cell>
+          <cell r="D13">
+            <v>5.99</v>
+          </cell>
+          <cell r="E13">
+            <v>6.07</v>
+          </cell>
+          <cell r="F13">
+            <v>6.05</v>
+          </cell>
+          <cell r="G13">
+            <v>6.07</v>
+          </cell>
+          <cell r="H13">
+            <v>6.2</v>
+          </cell>
+          <cell r="I13">
+            <v>6.74</v>
+          </cell>
+          <cell r="J13">
+            <v>6.9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+          <cell r="C1">
+            <v>0.1</v>
+          </cell>
+          <cell r="D1">
+            <v>0.2</v>
+          </cell>
+          <cell r="E1">
+            <v>0.3</v>
+          </cell>
+          <cell r="F1">
+            <v>0.4</v>
+          </cell>
+          <cell r="G1">
+            <v>0.5</v>
+          </cell>
+          <cell r="H1">
+            <v>0.6</v>
+          </cell>
+          <cell r="I1">
+            <v>0.7</v>
+          </cell>
+          <cell r="J1">
+            <v>0.8</v>
+          </cell>
+          <cell r="K1">
+            <v>0.9</v>
+          </cell>
+          <cell r="L1">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>单车引导</v>
+          </cell>
+          <cell r="B2">
+            <v>22.8</v>
+          </cell>
+          <cell r="C2">
+            <v>22.55</v>
+          </cell>
+          <cell r="D2">
+            <v>22.4</v>
+          </cell>
+          <cell r="E2">
+            <v>21.92</v>
+          </cell>
+          <cell r="F2">
+            <v>21.46</v>
+          </cell>
+          <cell r="G2">
+            <v>21.28</v>
+          </cell>
+          <cell r="H2">
+            <v>21.11</v>
+          </cell>
+          <cell r="I2">
+            <v>20.6</v>
+          </cell>
+          <cell r="J2">
+            <v>20.37</v>
+          </cell>
+          <cell r="K2">
+            <v>20.07</v>
+          </cell>
+          <cell r="L2">
+            <v>19.55</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>协同引导</v>
+          </cell>
+          <cell r="B3">
+            <v>22.7</v>
+          </cell>
+          <cell r="C3">
+            <v>22.21</v>
+          </cell>
+          <cell r="D3">
+            <v>21.66</v>
+          </cell>
+          <cell r="E3">
+            <v>21.27</v>
+          </cell>
+          <cell r="F3">
+            <v>20.58</v>
+          </cell>
+          <cell r="G3">
+            <v>19.690000000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>19.68</v>
+          </cell>
+          <cell r="I3">
+            <v>18.91</v>
+          </cell>
+          <cell r="J3">
+            <v>18.3</v>
+          </cell>
+          <cell r="K3">
+            <v>17.75</v>
+          </cell>
+          <cell r="L3">
+            <v>17.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0.1</v>
+          </cell>
+          <cell r="D2">
+            <v>0.2</v>
+          </cell>
+          <cell r="E2">
+            <v>0.3</v>
+          </cell>
+          <cell r="F2">
+            <v>0.4</v>
+          </cell>
+          <cell r="G2">
+            <v>0.5</v>
+          </cell>
+          <cell r="H2">
+            <v>0.6</v>
+          </cell>
+          <cell r="I2">
+            <v>0.7</v>
+          </cell>
+          <cell r="J2">
+            <v>0.8</v>
+          </cell>
+          <cell r="K2">
+            <v>0.9</v>
+          </cell>
+          <cell r="L2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>平均延误</v>
+          </cell>
+          <cell r="B3">
+            <v>22.7</v>
+          </cell>
+          <cell r="C3">
+            <v>22.21</v>
+          </cell>
+          <cell r="D3">
+            <v>21.66</v>
+          </cell>
+          <cell r="E3">
+            <v>21.27</v>
+          </cell>
+          <cell r="F3">
+            <v>20.58</v>
+          </cell>
+          <cell r="G3">
+            <v>19.690000000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>19.68</v>
+          </cell>
+          <cell r="I3">
+            <v>18.91</v>
+          </cell>
+          <cell r="J3">
+            <v>18.3</v>
+          </cell>
+          <cell r="K3">
+            <v>17.75</v>
+          </cell>
+          <cell r="L3">
+            <v>17.7</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0.1</v>
+          </cell>
+          <cell r="D4">
+            <v>0.2</v>
+          </cell>
+          <cell r="E4">
+            <v>0.3</v>
+          </cell>
+          <cell r="F4">
+            <v>0.4</v>
+          </cell>
+          <cell r="G4">
+            <v>0.5</v>
+          </cell>
+          <cell r="H4">
+            <v>0.6</v>
+          </cell>
+          <cell r="I4">
+            <v>0.7</v>
+          </cell>
+          <cell r="J4">
+            <v>0.8</v>
+          </cell>
+          <cell r="K4">
+            <v>0.9</v>
+          </cell>
+          <cell r="L4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>平均停车次数</v>
+          </cell>
+          <cell r="B5">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="C5">
+            <v>0.47</v>
+          </cell>
+          <cell r="D5">
+            <v>0.42</v>
+          </cell>
+          <cell r="E5">
+            <v>0.37</v>
+          </cell>
+          <cell r="F5">
+            <v>0.33</v>
+          </cell>
+          <cell r="G5">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="H5">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="I5">
+            <v>0.25</v>
+          </cell>
+          <cell r="J5">
+            <v>0.23</v>
+          </cell>
+          <cell r="K5">
+            <v>0.22</v>
+          </cell>
+          <cell r="L5">
+            <v>0.21</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0.1</v>
+          </cell>
+          <cell r="D6">
+            <v>0.2</v>
+          </cell>
+          <cell r="E6">
+            <v>0.3</v>
+          </cell>
+          <cell r="F6">
+            <v>0.4</v>
+          </cell>
+          <cell r="G6">
+            <v>0.5</v>
+          </cell>
+          <cell r="H6">
+            <v>0.6</v>
+          </cell>
+          <cell r="I6">
+            <v>0.7</v>
+          </cell>
+          <cell r="J6">
+            <v>0.8</v>
+          </cell>
+          <cell r="K6">
+            <v>0.9</v>
+          </cell>
+          <cell r="L6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>平均停车时间</v>
+          </cell>
+          <cell r="B7">
+            <v>11.48</v>
+          </cell>
+          <cell r="C7">
+            <v>10.82</v>
+          </cell>
+          <cell r="D7">
+            <v>10.77</v>
+          </cell>
+          <cell r="E7">
+            <v>10.15</v>
+          </cell>
+          <cell r="F7">
+            <v>9.2200000000000006</v>
+          </cell>
+          <cell r="G7">
+            <v>8.31</v>
+          </cell>
+          <cell r="H7">
+            <v>8.33</v>
+          </cell>
+          <cell r="I7">
+            <v>7.59</v>
+          </cell>
+          <cell r="J7">
+            <v>6.85</v>
+          </cell>
+          <cell r="K7">
+            <v>6.3</v>
+          </cell>
+          <cell r="L7">
+            <v>6.12</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4543,299 +5944,4 @@
     </a:ext>
   </a:extLst>
 </a:theme>
-</file>
-
-<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="80000">
-            <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>